--- a/src/data/extinctionCoeffsBale.xlsx
+++ b/src/data/extinctionCoeffsBale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/f_orihuela-espina_bham_ac_uk/Documents/PhDThesis/2022_RobertWard/code/broadband_spectroscopy/bNIRS_python/excoeffs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/f_orihuela-espina_bham_ac_uk/Documents/PhDThesis/2022_RobertWard/code/GIT/Crumb-and-Crust/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{2787E0F2-6A98-8446-B08E-C968A7AEDAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08E162AA-7011-BA4D-BF63-5F9130C70E49}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{2787E0F2-6A98-8446-B08E-C968A7AEDAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16EA4CEA-7715-4AE0-AE5B-D6E6E2B2CA15}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{1FDB5CF9-8137-D64A-9EBF-B861F5A2EB66}"/>
+    <workbookView minimized="1" xWindow="1545" yWindow="720" windowWidth="23715" windowHeight="15255" xr2:uid="{1FDB5CF9-8137-D64A-9EBF-B861F5A2EB66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,18 +177,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tissue_specific_extinction_coefficient_650to1000.m" connectionId="1" xr16:uid="{128AD8E4-52FC-7A45-ADC7-656B51E38B99}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -484,77 +480,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0946DA6-2C6C-F24C-891A-9D4F0B22FFC8}">
   <dimension ref="A2:I373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -583,27 +579,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>650</v>
       </c>
@@ -632,7 +628,7 @@
         <v>1.3596284E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>651</v>
       </c>
@@ -661,7 +657,7 @@
         <v>1.3719557E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>652</v>
       </c>
@@ -690,7 +686,7 @@
         <v>1.3596284E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>653</v>
       </c>
@@ -719,7 +715,7 @@
         <v>1.3348998000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>654</v>
       </c>
@@ -748,7 +744,7 @@
         <v>1.3100232E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>655</v>
       </c>
@@ -777,7 +773,7 @@
         <v>1.2941530999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>656</v>
       </c>
@@ -806,7 +802,7 @@
         <v>1.2840481000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>657</v>
       </c>
@@ -835,7 +831,7 @@
         <v>1.2743882999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>658</v>
       </c>
@@ -864,7 +860,7 @@
         <v>1.2639358999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>659</v>
       </c>
@@ -893,7 +889,7 @@
         <v>1.2520503000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>660</v>
       </c>
@@ -922,7 +918,7 @@
         <v>1.2363973E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>661</v>
       </c>
@@ -951,7 +947,7 @@
         <v>1.2172429E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>662</v>
       </c>
@@ -980,7 +976,7 @@
         <v>1.2069478E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>663</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>1.2164246E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>664</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>1.2386991E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>665</v>
       </c>
@@ -1067,7 +1063,7 @@
         <v>1.2639137999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>666</v>
       </c>
@@ -1096,7 +1092,7 @@
         <v>1.2885648E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>667</v>
       </c>
@@ -1125,7 +1121,7 @@
         <v>1.3119333E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>668</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>1.3380873999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>669</v>
       </c>
@@ -1183,7 +1179,7 @@
         <v>1.3682552000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>670</v>
       </c>
@@ -1212,7 +1208,7 @@
         <v>1.3875188E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>671</v>
       </c>
@@ -1241,7 +1237,7 @@
         <v>1.3826606999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>672</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>1.3634111000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>673</v>
       </c>
@@ -1299,7 +1295,7 @@
         <v>1.3415061000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>674</v>
       </c>
@@ -1328,7 +1324,7 @@
         <v>1.3137582E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>675</v>
       </c>
@@ -1357,7 +1353,7 @@
         <v>1.2752052999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>676</v>
       </c>
@@ -1386,7 +1382,7 @@
         <v>1.2287103000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>677</v>
       </c>
@@ -1415,7 +1411,7 @@
         <v>1.1789920000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>678</v>
       </c>
@@ -1444,7 +1440,7 @@
         <v>1.1303686E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>679</v>
       </c>
@@ -1473,7 +1469,7 @@
         <v>1.0858672999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>680</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>1.043753E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>681</v>
       </c>
@@ -1531,7 +1527,7 @@
         <v>1.0019615000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>682</v>
       </c>
@@ -1560,7 +1556,7 @@
         <v>9.6187540000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>683</v>
       </c>
@@ -1589,7 +1585,7 @@
         <v>9.2497459999999997E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>684</v>
       </c>
@@ -1618,7 +1614,7 @@
         <v>8.896826E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>685</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>8.5455679999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>686</v>
       </c>
@@ -1676,7 +1672,7 @@
         <v>8.2174599999999993E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>687</v>
       </c>
@@ -1705,7 +1701,7 @@
         <v>7.9318019999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>688</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>7.6632130000000003E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>689</v>
       </c>
@@ -1763,7 +1759,7 @@
         <v>7.392104E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>690</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>7.1667279999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>691</v>
       </c>
@@ -1821,7 +1817,7 @@
         <v>7.0381979999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>692</v>
       </c>
@@ -1850,7 +1846,7 @@
         <v>7.001218E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>693</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>7.0210029999999996E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>694</v>
       </c>
@@ -1908,7 +1904,7 @@
         <v>7.001218E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>695</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>6.8564849999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>696</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>6.6067920000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>697</v>
       </c>
@@ -1995,7 +1991,7 @@
         <v>6.3013469999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>698</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>6.0008639999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>699</v>
       </c>
@@ -2053,7 +2049,7 @@
         <v>5.7520829999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>700</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>5.5343450000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>701</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>5.323309E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>702</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>5.1473020000000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>703</v>
       </c>
@@ -2169,7 +2165,7 @@
         <v>5.0396429999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>704</v>
       </c>
@@ -2198,7 +2194,7 @@
         <v>5.0009440000000002E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>705</v>
       </c>
@@ -2227,7 +2223,7 @@
         <v>5.0112359999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>706</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>5.0009440000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>707</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>4.9017929999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>708</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>4.7003260000000003E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>709</v>
       </c>
@@ -2343,7 +2339,7 @@
         <v>4.4233570000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>710</v>
       </c>
@@ -2372,7 +2368,7 @@
         <v>4.2039709999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>711</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>4.1628460000000004E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>712</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>4.264772E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>713</v>
       </c>
@@ -2459,7 +2455,7 @@
         <v>4.4490670000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>714</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>4.7090550000000002E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>715</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>5.0491340000000003E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>716</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>5.4639889999999998E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>717</v>
       </c>
@@ -2575,7 +2571,7 @@
         <v>5.9409750000000002E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>718</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>6.4478399999999998E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>719</v>
       </c>
@@ -2633,7 +2629,7 @@
         <v>6.9527490000000003E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>720</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>7.4451539999999998E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>721</v>
       </c>
@@ -2691,7 +2687,7 @@
         <v>7.9299980000000006E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>722</v>
       </c>
@@ -2720,7 +2716,7 @@
         <v>8.4528910000000006E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>723</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>9.0565249999999993E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>724</v>
       </c>
@@ -2778,7 +2774,7 @@
         <v>9.7312360000000007E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>725</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>1.0458294999999999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>726</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>1.1235068000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>727</v>
       </c>
@@ -2865,7 +2861,7 @@
         <v>1.2070345E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>728</v>
       </c>
@@ -2894,7 +2890,7 @@
         <v>1.3002516E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>729</v>
       </c>
@@ -2923,7 +2919,7 @@
         <v>1.4035130999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>730</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>1.500279E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>731</v>
       </c>
@@ -2981,7 +2977,7 @@
         <v>1.5738262999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>732</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>1.6235968999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>733</v>
       </c>
@@ -3039,7 +3035,7 @@
         <v>1.6542019000000002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>734</v>
       </c>
@@ -3068,7 +3064,7 @@
         <v>1.6747655E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>735</v>
       </c>
@@ -3097,7 +3093,7 @@
         <v>1.6923295000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>736</v>
       </c>
@@ -3126,7 +3122,7 @@
         <v>1.7010924E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>737</v>
       </c>
@@ -3155,7 +3151,7 @@
         <v>1.6978424999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>738</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>1.702569E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>739</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>1.7363953000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>740</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>1.8017792000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>741</v>
       </c>
@@ -3271,7 +3267,7 @@
         <v>1.8948198999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>742</v>
       </c>
@@ -3300,7 +3296,7 @@
         <v>2.0048466000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>743</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>2.1228209000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>744</v>
       </c>
@@ -3358,7 +3354,7 @@
         <v>2.2530024999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>745</v>
       </c>
@@ -3387,7 +3383,7 @@
         <v>2.3994548000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>746</v>
       </c>
@@ -3416,7 +3412,7 @@
         <v>2.5521576000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>747</v>
       </c>
@@ -3445,7 +3441,7 @@
         <v>2.7008291E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>748</v>
       </c>
@@ -3474,7 +3470,7 @@
         <v>2.8482248000000002E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>749</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>2.9975394999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>750</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>3.1406874000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>751</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>3.267714E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>752</v>
       </c>
@@ -3590,7 +3586,7 @@
         <v>3.3724704000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>753</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>3.4538223999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>754</v>
       </c>
@@ -3648,7 +3644,7 @@
         <v>3.5268881000000002E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>755</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>3.6078236E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>756</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>3.7006840999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>757</v>
       </c>
@@ -3735,7 +3731,7 @@
         <v>3.8033010999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>758</v>
       </c>
@@ -3764,7 +3760,7 @@
         <v>3.9007114000000002E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>759</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>3.9779561999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>760</v>
       </c>
@@ -3822,7 +3818,7 @@
         <v>4.0328889E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>761</v>
       </c>
@@ -3851,7 +3847,7 @@
         <v>4.0649723999999998E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>762</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>4.0672937999999999E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>763</v>
       </c>
@@ -3909,7 +3905,7 @@
         <v>4.0277575000000003E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>764</v>
       </c>
@@ -3938,7 +3934,7 @@
         <v>3.9199115999999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>765</v>
       </c>
@@ -3967,7 +3963,7 @@
         <v>3.7279501999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>766</v>
       </c>
@@ -3996,7 +3992,7 @@
         <v>3.4930087999999998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>767</v>
       </c>
@@ -4025,7 +4021,7 @@
         <v>3.2560691000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>768</v>
       </c>
@@ -4054,7 +4050,7 @@
         <v>3.0005579000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>769</v>
       </c>
@@ -4083,7 +4079,7 @@
         <v>2.7068261E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>770</v>
       </c>
@@ -4112,7 +4108,7 @@
         <v>2.4004759000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>771</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>2.1120507E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>772</v>
       </c>
@@ -4170,7 +4166,7 @@
         <v>1.8466071000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>773</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>1.6021283000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>774</v>
       </c>
@@ -4228,7 +4224,7 @@
         <v>1.3737907000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>775</v>
       </c>
@@ -4257,7 +4253,7 @@
         <v>1.1605729E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>776</v>
       </c>
@@ -4286,7 +4282,7 @@
         <v>9.7946869999999998E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>777</v>
       </c>
@@ -4315,7 +4311,7 @@
         <v>8.4350559999999998E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>778</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>7.3182960000000002E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>779</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>6.238253E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>780</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>5.3371319999999996E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>781</v>
       </c>
@@ -4431,7 +4427,7 @@
         <v>4.7637519999999996E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>782</v>
       </c>
@@ -4460,7 +4456,7 @@
         <v>4.3450290000000003E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>783</v>
       </c>
@@ -4489,7 +4485,7 @@
         <v>3.8828059999999999E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>784</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>3.4005260000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>785</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>2.9609300000000001E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>786</v>
       </c>
@@ -4576,7 +4572,7 @@
         <v>2.562337E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>787</v>
       </c>
@@ -4605,7 +4601,7 @@
         <v>2.2073819999999999E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>788</v>
       </c>
@@ -4634,7 +4630,7 @@
         <v>1.9803830000000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>789</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>1.9441040000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>790</v>
       </c>
@@ -4692,7 +4688,7 @@
         <v>1.993412E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>791</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>2.0114149999999999E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>792</v>
       </c>
@@ -4750,7 +4746,7 @@
         <v>2.0020979999999999E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>793</v>
       </c>
@@ -4779,7 +4775,7 @@
         <v>1.9951370000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>794</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>2.0020979999999999E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>795</v>
       </c>
@@ -4837,7 +4833,7 @@
         <v>2.044513E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>796</v>
       </c>
@@ -4866,7 +4862,7 @@
         <v>2.201873E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>797</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>2.5304699999999999E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>798</v>
       </c>
@@ -4924,7 +4920,7 @@
         <v>2.9358309999999999E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>799</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>3.3140359999999998E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>800</v>
       </c>
@@ -4982,7 +4978,7 @@
         <v>3.6741310000000002E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>801</v>
       </c>
@@ -5011,7 +5007,7 @@
         <v>4.0457050000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>802</v>
       </c>
@@ -5040,7 +5036,7 @@
         <v>4.4275449999999997E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>803</v>
       </c>
@@ -5069,7 +5065,7 @@
         <v>4.8237210000000004E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>804</v>
       </c>
@@ -5098,7 +5094,7 @@
         <v>5.2902280000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>805</v>
       </c>
@@ -5127,7 +5123,7 @@
         <v>5.8697150000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>806</v>
       </c>
@@ -5156,7 +5152,7 @@
         <v>6.4995210000000003E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>807</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>7.1058129999999999E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>808</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>7.6753730000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>809</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>8.2135260000000005E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>810</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>8.7391340000000008E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>811</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>9.273346E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>812</v>
       </c>
@@ -5330,7 +5326,7 @@
         <v>9.8329049999999994E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>813</v>
       </c>
@@ -5359,7 +5355,7 @@
         <v>1.0426639E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>814</v>
       </c>
@@ -5388,7 +5384,7 @@
         <v>1.1036117999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>815</v>
       </c>
@@ -5417,7 +5413,7 @@
         <v>1.1635309999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>816</v>
       </c>
@@ -5446,7 +5442,7 @@
         <v>1.2195032E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>817</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>1.2697284E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>818</v>
       </c>
@@ -5504,7 +5500,7 @@
         <v>1.3171934E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>819</v>
       </c>
@@ -5533,7 +5529,7 @@
         <v>1.3661898E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>820</v>
       </c>
@@ -5562,7 +5558,7 @@
         <v>1.4214414999999999E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>821</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>1.4859455000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>822</v>
       </c>
@@ -5620,7 +5616,7 @@
         <v>1.5553605E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>823</v>
       </c>
@@ -5649,7 +5645,7 @@
         <v>1.6227364000000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>824</v>
       </c>
@@ -5678,7 +5674,7 @@
         <v>1.678027E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>825</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>1.7148004000000001E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>826</v>
       </c>
@@ -5736,7 +5732,7 @@
         <v>1.7441787E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>827</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>1.7765783E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>828</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>1.8020398E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>829</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>1.8106843000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>830</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>1.8133315000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>831</v>
       </c>
@@ -5881,7 +5877,7 @@
         <v>1.8191097E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>832</v>
       </c>
@@ -5910,7 +5906,7 @@
         <v>1.8096833999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>833</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>1.7681901E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>834</v>
       </c>
@@ -5968,7 +5964,7 @@
         <v>1.7111246E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>835</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>1.6592545E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>836</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>1.6170825E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>837</v>
       </c>
@@ -6055,7 +6051,7 @@
         <v>1.584023E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>838</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>1.555404E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>839</v>
       </c>
@@ -6113,7 +6109,7 @@
         <v>1.5257451E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>840</v>
       </c>
@@ -6142,7 +6138,7 @@
         <v>1.4904205E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>841</v>
       </c>
@@ -6171,7 +6167,7 @@
         <v>1.4466089999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>842</v>
       </c>
@@ -6200,7 +6196,7 @@
         <v>1.3978549999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>843</v>
       </c>
@@ -6229,7 +6225,7 @@
         <v>1.3496101E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>844</v>
       </c>
@@ -6258,7 +6254,7 @@
         <v>1.3085901E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>845</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>1.2788199E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>846</v>
       </c>
@@ -6316,7 +6312,7 @@
         <v>1.2522968000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>847</v>
       </c>
@@ -6345,7 +6341,7 @@
         <v>1.2224192E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>848</v>
       </c>
@@ -6374,7 +6370,7 @@
         <v>1.2002162E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>849</v>
       </c>
@@ -6403,7 +6399,7 @@
         <v>1.1960790000000001E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>850</v>
       </c>
@@ -6432,7 +6428,7 @@
         <v>1.2002162E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>851</v>
       </c>
@@ -6461,7 +6457,7 @@
         <v>1.2010721E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>852</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>1.2002162E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>853</v>
       </c>
@@ -6519,7 +6515,7 @@
         <v>1.2009298999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>854</v>
       </c>
@@ -6548,7 +6544,7 @@
         <v>1.2002162E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>855</v>
       </c>
@@ -6577,7 +6573,7 @@
         <v>1.1967824E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>856</v>
       </c>
@@ -6606,7 +6602,7 @@
         <v>1.2024310999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>857</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>1.2259258E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>858</v>
       </c>
@@ -6664,7 +6660,7 @@
         <v>1.2507768000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>859</v>
       </c>
@@ -6693,7 +6689,7 @@
         <v>1.2654855E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>860</v>
       </c>
@@ -6722,7 +6718,7 @@
         <v>1.3037694000000001E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>861</v>
       </c>
@@ -6751,7 +6747,7 @@
         <v>1.3946115E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>862</v>
       </c>
@@ -6780,7 +6776,7 @@
         <v>1.5028412999999999E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>863</v>
       </c>
@@ -6809,7 +6805,7 @@
         <v>1.5944487E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>864</v>
       </c>
@@ -6838,7 +6834,7 @@
         <v>1.7042193000000001E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>865</v>
       </c>
@@ -6867,7 +6863,7 @@
         <v>1.8674044000000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>866</v>
       </c>
@@ -6896,7 +6892,7 @@
         <v>2.0523237E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>867</v>
       </c>
@@ -6925,7 +6921,7 @@
         <v>2.2239094000000001E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>868</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>2.4004759000000001E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>869</v>
       </c>
@@ -6983,7 +6979,7 @@
         <v>2.6020353E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>870</v>
       </c>
@@ -7012,7 +7008,7 @@
         <v>2.8020072E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>871</v>
       </c>
@@ -7041,7 +7037,7 @@
         <v>2.9820771999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>872</v>
       </c>
@@ -7070,7 +7066,7 @@
         <v>3.2035862999999998E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>873</v>
       </c>
@@ -7099,7 +7095,7 @@
         <v>3.5176462999999998E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>874</v>
       </c>
@@ -7128,7 +7124,7 @@
         <v>3.8547977999999997E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>875</v>
       </c>
@@ -7157,7 +7153,7 @@
         <v>4.1541499000000003E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>876</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>4.5096574E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>877</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>5.0081385999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>878</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>5.5530194999999997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>879</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>6.0513554999999997E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>880</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>6.6081118999999994E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>881</v>
       </c>
@@ -7331,7 +7327,7 @@
         <v>7.3255423E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>882</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>8.0971425999999999E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>883</v>
       </c>
@@ -7389,7 +7385,7 @@
         <v>8.8191417999999994E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>884</v>
       </c>
@@ -7418,7 +7414,7 @@
         <v>9.6074582000000006E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>885</v>
       </c>
@@ -7447,7 +7443,7 @@
         <v>0.10579617500000001</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>886</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>0.116398868</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>887</v>
       </c>
@@ -7505,7 +7501,7 @@
         <v>0.12674031399999999</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>888</v>
       </c>
@@ -7534,7 +7530,7 @@
         <v>0.137070678</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>889</v>
       </c>
@@ -7563,7 +7559,7 @@
         <v>0.147935176</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>890</v>
       </c>
@@ -7592,7 +7588,7 @@
         <v>0.15966671499999999</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>891</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>0.17199178600000001</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>892</v>
       </c>
@@ -7650,7 +7646,7 @@
         <v>0.182423529</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>893</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>0.18898494099999999</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>894</v>
       </c>
@@ -7708,7 +7704,7 @@
         <v>0.19395178900000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>895</v>
       </c>
@@ -7737,7 +7733,7 @@
         <v>0.19965074899999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>896</v>
       </c>
@@ -7766,7 +7762,7 @@
         <v>0.20435935199999999</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>897</v>
       </c>
@@ -7795,7 +7791,7 @@
         <v>0.206101005</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>898</v>
       </c>
@@ -7824,7 +7820,7 @@
         <v>0.20593175899999999</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>899</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>0.20558385900000001</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>900</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>0.20646168500000001</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>901</v>
       </c>
@@ -7911,7 +7907,7 @@
         <v>0.20931998299999999</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>902</v>
       </c>
@@ -7940,7 +7936,7 @@
         <v>0.21264282500000001</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>903</v>
       </c>
@@ -7969,7 +7965,7 @@
         <v>0.215254418</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>904</v>
       </c>
@@ -7998,7 +7994,7 @@
         <v>0.21961016799999999</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>905</v>
       </c>
@@ -8027,7 +8023,7 @@
         <v>0.22794271199999999</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>906</v>
       </c>
@@ -8056,7 +8052,7 @@
         <v>0.23796241000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>907</v>
       </c>
@@ -8085,7 +8081,7 @@
         <v>0.24734037</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>908</v>
       </c>
@@ -8114,7 +8110,7 @@
         <v>0.25811297900000002</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>909</v>
       </c>
@@ -8143,7 +8139,7 @@
         <v>0.27248897500000002</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>910</v>
       </c>
@@ -8172,7 +8168,7 @@
         <v>0.28900121899999998</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>911</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>0.30562798099999999</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>912</v>
       </c>
@@ -8230,7 +8226,7 @@
         <v>0.32180504399999998</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>913</v>
       </c>
@@ -8259,7 +8255,7 @@
         <v>0.33747870400000002</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>914</v>
       </c>
@@ -8288,7 +8284,7 @@
         <v>0.35317978</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>915</v>
       </c>
@@ -8317,7 +8313,7 @@
         <v>0.36919666299999998</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>916</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>0.38426349599999998</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>917</v>
       </c>
@@ -8375,7 +8371,7 @@
         <v>0.39724405400000001</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>918</v>
       </c>
@@ -8404,7 +8400,7 @@
         <v>0.40907486999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>919</v>
       </c>
@@ -8433,7 +8429,7 @@
         <v>0.42088388500000001</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>920</v>
       </c>
@@ -8462,7 +8458,7 @@
         <v>0.43249189799999999</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>921</v>
       </c>
@@ -8491,7 +8487,7 @@
         <v>0.44360090000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>922</v>
       </c>
@@ -8520,7 +8516,7 @@
         <v>0.4547448</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>923</v>
       </c>
@@ -8549,7 +8545,7 @@
         <v>0.46623745700000002</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>924</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>0.47668062300000003</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>925</v>
       </c>
@@ -8607,7 +8603,7 @@
         <v>0.48495833300000002</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>926</v>
       </c>
@@ -8636,7 +8632,7 @@
         <v>0.49279585799999998</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>927</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>0.501441044</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>928</v>
       </c>
@@ -8694,7 +8690,7 @@
         <v>0.50739080199999997</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>929</v>
       </c>
@@ -8723,7 +8719,7 @@
         <v>0.507551584</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>930</v>
       </c>
@@ -8752,7 +8748,7 @@
         <v>0.50521893799999995</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>931</v>
       </c>
@@ -8781,7 +8777,7 @@
         <v>0.50346157800000002</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>932</v>
       </c>
@@ -8810,7 +8806,7 @@
         <v>0.49805177699999997</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>933</v>
       </c>
@@ -8839,7 +8835,7 @@
         <v>0.48481981699999999</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>934</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>0.467124451</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>935</v>
       </c>
@@ -8897,7 +8893,7 @@
         <v>0.448870881</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>936</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>0.428621639</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>937</v>
       </c>
@@ -8955,7 +8951,7 @@
         <v>0.40438244400000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>938</v>
       </c>
@@ -8984,7 +8980,7 @@
         <v>0.37727443799999999</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>939</v>
       </c>
@@ -9013,7 +9009,7 @@
         <v>0.34912222399999998</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>940</v>
       </c>
@@ -9042,7 +9038,7 @@
         <v>0.32144883600000002</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>941</v>
       </c>
@@ -9071,7 +9067,7 @@
         <v>0.29520346200000003</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>942</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>0.26934148899999999</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>943</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>0.243073976</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>944</v>
       </c>
@@ -9158,7 +9154,7 @@
         <v>0.21862848800000001</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>945</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>0.198064982</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>946</v>
       </c>
@@ -9216,7 +9212,7 @@
         <v>0.17975648299999999</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>947</v>
       </c>
@@ -9245,7 +9241,7 @@
         <v>0.16189947900000001</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>948</v>
       </c>
@@ -9274,7 +9270,7 @@
         <v>0.14567122800000001</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>949</v>
       </c>
@@ -9303,7 +9299,7 @@
         <v>0.13239193599999999</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>950</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>0.120972814</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>951</v>
       </c>
@@ -9361,7 +9357,7 @@
         <v>0.11015026999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>952</v>
       </c>
@@ -9390,7 +9386,7 @@
         <v>0.10037049200000001</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>953</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>9.2213509999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>954</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>8.5084933000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>955</v>
       </c>
@@ -9477,7 +9473,7 @@
         <v>7.8336592999999996E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>956</v>
       </c>
@@ -9506,7 +9502,7 @@
         <v>7.2279629999999997E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>957</v>
       </c>
@@ -9535,7 +9531,7 @@
         <v>6.7286895999999999E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>958</v>
       </c>
@@ -9564,7 +9560,7 @@
         <v>6.3018777999999998E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>959</v>
       </c>
@@ -9593,7 +9589,7 @@
         <v>5.9075637E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>960</v>
       </c>
@@ -9622,7 +9618,7 @@
         <v>5.5530194999999997E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>961</v>
       </c>
@@ -9651,7 +9647,7 @@
         <v>5.2501628000000002E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>962</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>4.9822566999999998E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>963</v>
       </c>
@@ -9709,7 +9705,7 @@
         <v>4.7317116999999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>964</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>4.5061830999999997E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>965</v>
       </c>
@@ -9767,7 +9763,7 @@
         <v>4.3148114000000001E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>966</v>
       </c>
@@ -9796,7 +9792,7 @@
         <v>4.1474340999999998E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>967</v>
       </c>
@@ -9825,7 +9821,7 @@
         <v>3.9928673999999997E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>968</v>
       </c>
@@ -9854,7 +9850,7 @@
         <v>3.8551452E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>969</v>
       </c>
@@ -9883,7 +9879,7 @@
         <v>3.7394019000000001E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>970</v>
       </c>
@@ -9912,7 +9908,7 @@
         <v>3.6399567000000001E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>971</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>3.5503323000000003E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>972</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>3.4716806000000003E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>973</v>
       </c>
@@ -9999,7 +9995,7 @@
         <v>3.4056049999999997E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>974</v>
       </c>
@@ -10028,7 +10024,7 @@
         <v>3.3478848999999998E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>975</v>
       </c>
@@ -10057,7 +10053,7 @@
         <v>3.2951040000000001E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>976</v>
       </c>
@@ -10086,7 +10082,7 @@
         <v>3.2528873999999999E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>977</v>
       </c>
@@ -10115,7 +10111,7 @@
         <v>3.2266498999999997E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>978</v>
       </c>
@@ -10144,7 +10140,7 @@
         <v>3.2119246999999997E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>979</v>
       </c>
@@ -10173,7 +10169,7 @@
         <v>3.2041568999999999E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>980</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>3.2083200999999999E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>981</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>3.2286855000000003E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>982</v>
       </c>
@@ -10260,7 +10256,7 @@
         <v>3.2571869000000003E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>983</v>
       </c>
@@ -10289,7 +10285,7 @@
         <v>3.2890135000000001E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>984</v>
       </c>
@@ -10318,7 +10314,7 @@
         <v>3.3447145999999997E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>985</v>
       </c>
@@ -10347,7 +10343,7 @@
         <v>3.4439864000000001E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>986</v>
       </c>
@@ -10376,7 +10372,7 @@
         <v>3.5777527000000003E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>987</v>
       </c>
@@ -10405,7 +10401,7 @@
         <v>3.7349068999999999E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>988</v>
       </c>
@@ -10434,7 +10430,7 @@
         <v>3.9249928000000003E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>989</v>
       </c>
@@ -10463,7 +10459,7 @@
         <v>4.1589656000000003E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>990</v>
       </c>
@@ -10492,7 +10488,7 @@
         <v>4.4327743000000003E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>991</v>
       </c>
@@ -10521,7 +10517,7 @@
         <v>4.7394319999999997E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>992</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>5.0752130999999999E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>993</v>
       </c>
@@ -10579,7 +10575,7 @@
         <v>5.4377831000000001E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>994</v>
       </c>
@@ -10608,7 +10604,7 @@
         <v>5.8271113999999999E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>995</v>
       </c>
@@ -10637,7 +10633,7 @@
         <v>6.2421997999999999E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>996</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>6.6758749000000006E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>997</v>
       </c>
@@ -10695,7 +10691,7 @@
         <v>7.1210546E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>998</v>
       </c>
@@ -10724,7 +10720,7 @@
         <v>7.5771965999999996E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>999</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>8.0453935000000004E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1000</v>
       </c>
@@ -10782,7 +10778,7 @@
         <v>8.5267381000000003E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>13</v>
       </c>
